--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2867598.293435453</v>
+        <v>2971777.927886524</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>105.4771979831543</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>292.3520130340198</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -789,7 +791,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7165703189229</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,13 +828,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>40.53915896495825</v>
+        <v>36.71607097387903</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -947,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>72.33270390034056</v>
       </c>
       <c r="U5" t="n">
-        <v>44.28190385754322</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>95.44336989065498</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>219.1489476327851</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>114.947031241229</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>20.21682288978451</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1294,10 +1296,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>24.72886415268606</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>123.009276702707</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>18.7084378797726</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1658,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,10 +1824,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>149.2607556244443</v>
       </c>
       <c r="W16" t="n">
-        <v>169.8538311717799</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>164.3593773323622</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>31.08121593769635</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>39.52129633183122</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2479,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>87.21471514852939</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>85.08368458989422</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>26.12116916215706</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2852,7 +2854,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D31" t="n">
-        <v>68.17501931583779</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>77.93612009725524</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3269,10 +3271,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>1.799772605716112</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>143.5476780877542</v>
       </c>
     </row>
     <row r="38">
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3673,13 +3675,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>96.03245356584388</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3718,10 +3720,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>126.9420388308264</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881302</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>143.4157347120542</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>31.26260713376557</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D46" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>3108.772528910857</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W2" t="n">
-        <v>3108.772528910857</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="X2" t="n">
-        <v>2735.306770649777</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>403.7945880458111</v>
+        <v>421.4185328474558</v>
       </c>
       <c r="C4" t="n">
-        <v>403.7945880458111</v>
+        <v>421.4185328474558</v>
       </c>
       <c r="D4" t="n">
-        <v>253.6779486334754</v>
+        <v>271.3018934351201</v>
       </c>
       <c r="E4" t="n">
-        <v>253.6779486334754</v>
+        <v>271.3018934351201</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4510,28 +4512,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U4" t="n">
-        <v>631.7841389438285</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V4" t="n">
-        <v>631.7841389438285</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W4" t="n">
-        <v>631.7841389438285</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X4" t="n">
-        <v>403.7945880458111</v>
+        <v>603.0669976776956</v>
       </c>
       <c r="Y4" t="n">
-        <v>403.7945880458111</v>
+        <v>603.0669976776956</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1689.318139675982</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
         <v>1320.35562273557</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3142.251815863195</v>
       </c>
       <c r="U5" t="n">
-        <v>3170.585957320566</v>
+        <v>3142.251815863195</v>
       </c>
       <c r="V5" t="n">
-        <v>2839.523069976995</v>
+        <v>2811.188928519624</v>
       </c>
       <c r="W5" t="n">
-        <v>2839.523069976995</v>
+        <v>2811.188928519624</v>
       </c>
       <c r="X5" t="n">
-        <v>2466.057311715915</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="Y5" t="n">
-        <v>2075.917979740103</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>699.1203903877109</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U7" t="n">
-        <v>699.1203903877109</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V7" t="n">
-        <v>699.1203903877109</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="W7" t="n">
-        <v>699.1203903877109</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="X7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="Y7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
     </row>
     <row r="8">
@@ -4817,28 +4819,28 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993391</v>
+        <v>3099.207040771387</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993391</v>
+        <v>3099.207040771387</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649821</v>
+        <v>2768.144153427816</v>
       </c>
       <c r="W8" t="n">
         <v>2768.144153427816</v>
@@ -4857,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.5323442946291</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218339</v>
@@ -4984,28 +4986,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>806.0778979164336</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438281</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="V10" t="n">
-        <v>631.7841389438281</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="W10" t="n">
-        <v>631.7841389438281</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="X10" t="n">
-        <v>507.5323442946291</v>
+        <v>584.3112824859596</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.5323442946291</v>
+        <v>363.5187033424295</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5127,7 +5129,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>194.8007783998286</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5275,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5360,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>631.7012443408906</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408906</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1604.663117577612</v>
       </c>
       <c r="W16" t="n">
-        <v>1262.131839212678</v>
+        <v>1315.245947540652</v>
       </c>
       <c r="X16" t="n">
-        <v>1034.14228831466</v>
+        <v>1087.256396642634</v>
       </c>
       <c r="Y16" t="n">
-        <v>813.3497091711304</v>
+        <v>866.4638174991043</v>
       </c>
     </row>
     <row r="17">
@@ -5507,7 +5509,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5522,13 +5524,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>642.8692823226941</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>473.9330993947872</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>323.8164599824514</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5713,10 +5715,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1045.310326296464</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>824.5177471529338</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,22 +5770,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5835,22 +5837,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>671.2000270096659</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400712</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D22" t="n">
-        <v>363.7369613277355</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E22" t="n">
-        <v>215.8238677453423</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>215.8238677453423</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>215.8238677453423</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>741.8431516380886</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>572.9069687101817</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>923.4916164683283</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6217,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6245,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6312,10 +6314,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>707.672526468518</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="C28" t="n">
-        <v>538.7363435406111</v>
+        <v>814.4041655335318</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>664.287526121196</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>516.3744325388029</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>369.4844850408925</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>202.2883857557725</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>889.3209912987577</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,28 +6484,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N30" t="n">
-        <v>2092.798483612594</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O30" t="n">
         <v>2092.798483612594</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D31" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2716.927329289434</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L33" t="n">
-        <v>2877.307316025036</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M33" t="n">
-        <v>3474.685803651587</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>4102.283767206194</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>4654.193497445481</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>481.447947124485</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="35">
@@ -6932,19 +6934,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192741</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075822</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
         <v>175.9033664000583</v>
@@ -7093,52 +7095,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1425.313279727861</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7154,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>929.7309773356195</v>
+        <v>3025.224490384403</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>4526.784970301658</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>4307.1835053246</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>4018.108278668798</v>
       </c>
       <c r="V40" t="n">
-        <v>1560.161572207407</v>
+        <v>3763.423790462911</v>
       </c>
       <c r="W40" t="n">
-        <v>1560.161572207407</v>
+        <v>3474.00662042595</v>
       </c>
       <c r="X40" t="n">
-        <v>1332.172021309389</v>
+        <v>3246.017069527933</v>
       </c>
       <c r="Y40" t="n">
-        <v>1111.379442165859</v>
+        <v>3025.224490384403</v>
       </c>
     </row>
     <row r="41">
@@ -7397,64 +7399,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,31 +7484,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>126.7126101431587</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>102.8768876993837</v>
       </c>
       <c r="W16" t="n">
-        <v>116.6691671648111</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>61.35027805667499</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>148.7507642442409</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>100.7734165143927</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>61.40075786968296</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>61.35027805667495</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24613,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>114.1735436840668</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D31" t="n">
-        <v>80.44045370237457</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>67.484927925676</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>75.03697526434058</v>
       </c>
     </row>
     <row r="38">
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>84.99383243580071</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>125.1956044930016</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>5.199738306158196</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>114.1584408891657</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D46" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
+        <v>697885.5043846408</v>
+      </c>
+      <c r="D2" t="n">
         <v>697885.5043846407</v>
       </c>
-      <c r="D2" t="n">
-        <v>697885.5043846408</v>
-      </c>
       <c r="E2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="G2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365053</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365059</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365055</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551204</v>
+        <v>85055.02793551212</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
         <v>93596.7441040526</v>
@@ -26442,13 +26444,13 @@
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832389.9260083975</v>
+        <v>-832389.9260083974</v>
       </c>
       <c r="C6" t="n">
-        <v>496354.8197191949</v>
+        <v>496354.819719195</v>
       </c>
       <c r="D6" t="n">
-        <v>496354.8197191953</v>
+        <v>496354.8197191951</v>
       </c>
       <c r="E6" t="n">
         <v>244712.9220633755</v>
       </c>
       <c r="F6" t="n">
-        <v>570125.3838707308</v>
+        <v>570125.3838707311</v>
       </c>
       <c r="G6" t="n">
-        <v>570125.3838707312</v>
+        <v>570125.383870731</v>
       </c>
       <c r="H6" t="n">
         <v>570125.3838707311</v>
       </c>
       <c r="I6" t="n">
-        <v>570125.383870731</v>
+        <v>570125.3838707311</v>
       </c>
       <c r="J6" t="n">
-        <v>352594.1814734539</v>
+        <v>352594.1814734534</v>
       </c>
       <c r="K6" t="n">
-        <v>570125.3838707313</v>
+        <v>570125.3838707311</v>
       </c>
       <c r="L6" t="n">
         <v>570125.3838707312</v>
       </c>
       <c r="M6" t="n">
-        <v>485070.3559352194</v>
+        <v>485070.3559352189</v>
       </c>
       <c r="N6" t="n">
+        <v>570125.3838707312</v>
+      </c>
+      <c r="O6" t="n">
         <v>570125.3838707313</v>
-      </c>
-      <c r="O6" t="n">
-        <v>570125.3838707315</v>
       </c>
       <c r="P6" t="n">
         <v>570125.3838707311</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26823,10 +26825,10 @@
         <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973565</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>222.2750604869806</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>56.88895568339319</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27546,13 +27548,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>104.881889057973</v>
+        <v>108.7049770490522</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27667,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>131.5852662392796</v>
       </c>
       <c r="U5" t="n">
-        <v>206.7132681013588</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>190.7684683149579</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>6.560707756252043</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>88.97093889839115</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>329.0241458276285</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,10 +28016,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983812</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>165.0401611787558</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>102.7003786863301</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29989,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-5.590653145880544e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -31610,7 +31612,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
         <v>609.6478166837924</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31847,31 +31849,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868578</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32014,7 +32016,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
         <v>593.8732233669223</v>
@@ -32078,28 +32080,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,10 +32320,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>240.4469701760392</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>303.7670002884146</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32557,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>570.6116741576916</v>
+        <v>610.0546826043645</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32710,7 +32712,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32783,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32792,13 +32794,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N24" t="n">
-        <v>336.3457189021236</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32809,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33032,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>409.0029787211721</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,13 +33271,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>615.038144437878</v>
       </c>
       <c r="N30" t="n">
-        <v>556.532545233504</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33418,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33494,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L33" t="n">
-        <v>300.5543663814923</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33515,13 +33517,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067246</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236522</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>211.0222436375116</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N45" t="n">
-        <v>473.8581708471803</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35258,7 +35260,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
         <v>478.3061046004591</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648395</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35662,7 +35664,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924728</v>
@@ -35726,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,10 +35968,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>101.892590396165</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>163.785226202393</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>432.0572943778175</v>
+        <v>471.5003028244903</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36358,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N24" t="n">
-        <v>205.0040068187903</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36457,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36680,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>266.8689447991538</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,13 +36919,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="N30" t="n">
-        <v>425.1908331501707</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37066,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37142,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L33" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37163,13 +37165,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236318714</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>439.1903400640646</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N45" t="n">
-        <v>342.516458763847</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2971777.927886524</v>
+        <v>2967765.31787253</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>368.0292338928645</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>292.3520130340198</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -791,7 +791,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>36.71607097387903</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>20.19521546231649</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,16 +949,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>72.33270390034056</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>93.4583209939527</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>95.44336989065498</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>203.7029035467948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>75.4571321610379</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>114.947031241229</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>24.72886415268606</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>149.5860981314935</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576137</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>216.4795114578124</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>149.2607556244443</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.7025149569541</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2013,16 +2013,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>31.08121593769635</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>100.7197280522375</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2478,22 +2478,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>85.08368458989422</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>26.12116916215706</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>121.8000472740347</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599951</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>77.93612009725524</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3271,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>143.5476780877542</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>96.03245356584388</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>143.4157347120542</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
@@ -4336,10 +4336,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V2" t="n">
-        <v>3119.628073993393</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W2" t="n">
-        <v>2824.323010322666</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>1561.900772669911</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
         <v>767.0908251999817</v>
@@ -4406,7 +4406,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>421.4185328474558</v>
+        <v>679.6952191369613</v>
       </c>
       <c r="C4" t="n">
-        <v>421.4185328474558</v>
+        <v>510.7590362090544</v>
       </c>
       <c r="D4" t="n">
-        <v>271.3018934351201</v>
+        <v>360.6423967967187</v>
       </c>
       <c r="E4" t="n">
-        <v>271.3018934351201</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4512,28 +4512,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>603.0669976776956</v>
+        <v>900.4877982804915</v>
       </c>
       <c r="Y4" t="n">
-        <v>603.0669976776956</v>
+        <v>679.6952191369613</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3142.251815863195</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3142.251815863195</v>
+        <v>3120.91280869793</v>
       </c>
       <c r="V5" t="n">
-        <v>2811.188928519624</v>
+        <v>3120.91280869793</v>
       </c>
       <c r="W5" t="n">
-        <v>2811.188928519624</v>
+        <v>2768.144153427816</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.723170258544</v>
+        <v>2394.678395166736</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.583838282732</v>
+        <v>2004.539063190924</v>
       </c>
     </row>
     <row r="6">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>417.6040489720652</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>321.1966046380703</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>66.51211643218342</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>66.51211643218342</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218342</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218342</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329463</v>
@@ -4819,37 +4819,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3099.207040771387</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3099.207040771387</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2768.144153427816</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2768.144153427816</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2394.678395166736</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>363.5187033424295</v>
+        <v>480.6870701241381</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300937</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>806.0778979164336</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>584.3112824859596</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>584.3112824859596</v>
+        <v>631.7841389438286</v>
       </c>
       <c r="V10" t="n">
-        <v>584.3112824859596</v>
+        <v>480.6870701241381</v>
       </c>
       <c r="W10" t="n">
-        <v>584.3112824859596</v>
+        <v>480.6870701241381</v>
       </c>
       <c r="X10" t="n">
-        <v>584.3112824859596</v>
+        <v>480.6870701241381</v>
       </c>
       <c r="Y10" t="n">
-        <v>363.5187033424295</v>
+        <v>480.6870701241381</v>
       </c>
     </row>
     <row r="11">
@@ -5032,22 +5032,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5056,19 +5056,19 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5108,40 +5108,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991043</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711974</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V16" t="n">
-        <v>1604.663117577612</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1315.245947540652</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1087.256396642634</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>866.4638174991043</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5509,34 +5509,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811332</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532263</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>591.7265122257528</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949679</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5995,16 +5995,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3403484614387</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4041655335318</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>664.287526121196</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3744325388029</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>369.4844850408925</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>202.2883857557725</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,28 +6454,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1540.888753373307</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6600,22 +6600,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>390.823249958218</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647277</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>631.5645865368208</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>481.447947124485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>481.447947124485</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,37 +6949,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1653.302830625878</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1425.313279727861</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3025.224490384403</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>2856.288307456496</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>2856.288307456496</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>2708.375213874103</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4526.784970301658</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4307.1835053246</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4018.108278668798</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3763.423790462911</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3474.00662042595</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3246.017069527933</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3025.224490384403</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>315.9123021921476</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>315.9123021921476</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>913.2907898186995</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>695.5020655703114</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>695.5020655703114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,22 +7645,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
   </sheetData>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>65.54986409393022</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.925938869475857</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>102.8768876993837</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>136.2749052347519</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.7507642442409</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>45.7142345943317</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>61.35027805667495</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>114.1735436840668</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>45.44677382459312</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>67.484927925676</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,13 +25317,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>75.03697526434058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>84.99383243580071</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>5.199738306158196</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365052</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365053</v>
       </c>
       <c r="G2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365054</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365054</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="N2" t="n">
-        <v>686074.6097365057</v>
-      </c>
       <c r="O2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365055</v>
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073547</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551212</v>
+        <v>85055.02793551161</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186747</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
@@ -26450,7 +26450,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832389.9260083974</v>
+        <v>-832389.9260083976</v>
       </c>
       <c r="C6" t="n">
         <v>496354.819719195</v>
       </c>
       <c r="D6" t="n">
-        <v>496354.8197191951</v>
+        <v>496354.819719195</v>
       </c>
       <c r="E6" t="n">
-        <v>244712.9220633755</v>
+        <v>244365.542809019</v>
       </c>
       <c r="F6" t="n">
-        <v>570125.3838707311</v>
+        <v>569778.0046163738</v>
       </c>
       <c r="G6" t="n">
-        <v>570125.383870731</v>
+        <v>569778.0046163739</v>
       </c>
       <c r="H6" t="n">
-        <v>570125.3838707311</v>
+        <v>569778.004616374</v>
       </c>
       <c r="I6" t="n">
-        <v>570125.3838707311</v>
+        <v>569778.004616374</v>
       </c>
       <c r="J6" t="n">
-        <v>352594.1814734534</v>
+        <v>352246.8022190967</v>
       </c>
       <c r="K6" t="n">
-        <v>570125.3838707311</v>
+        <v>569778.0046163741</v>
       </c>
       <c r="L6" t="n">
-        <v>570125.3838707312</v>
+        <v>569778.0046163741</v>
       </c>
       <c r="M6" t="n">
-        <v>485070.3559352189</v>
+        <v>484722.9766808625</v>
       </c>
       <c r="N6" t="n">
-        <v>570125.3838707312</v>
+        <v>569778.004616374</v>
       </c>
       <c r="O6" t="n">
-        <v>570125.3838707313</v>
+        <v>569778.0046163741</v>
       </c>
       <c r="P6" t="n">
-        <v>570125.3838707311</v>
+        <v>569778.0046163741</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26968,16 +26968,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973548</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>14.70460777061612</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>56.88895568339319</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>108.7049770490522</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>205.5144399267207</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,16 +27669,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>131.5852662392796</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>157.5368509649493</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>190.7684683149579</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>14.88174980530002</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>306.4732379112239</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>88.97093889839115</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>165.0401611787558</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>102.5515451923345</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.359001882723533e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29991,7 +29991,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-5.590653145880544e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>583.1096135868572</v>
+        <v>446.0127311990649</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,37 +32077,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>446.0127311990647</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32320,7 +32320,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>303.7670002884146</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>610.0546826043645</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32806,10 +32806,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32949,7 +32949,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L26" t="n">
         <v>867.846407116256</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33034,7 +33034,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>409.0029787211721</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33268,25 +33268,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M30" t="n">
-        <v>615.038144437878</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33420,7 +33420,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33496,19 +33496,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33517,7 +33517,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>211.0222436375116</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>416.4300581532619</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>440.9755796648388</v>
+        <v>303.8786972770466</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>303.8786972770464</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,7 +35968,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>471.5003028244903</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36454,10 +36454,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36597,7 +36597,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36682,7 +36682,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>266.8689447991538</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M30" t="n">
-        <v>472.9041105158597</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37165,7 +37165,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>73.1808046631526</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,22 +38101,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>274.2960242312436</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_23_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2967765.31787253</v>
+        <v>2969525.848175317</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8557641.841275435</v>
+        <v>8557641.841275437</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>368.0292338928645</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>52.90622424463385</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -740,10 +740,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>20.19521546231649</v>
+        <v>19.52918235370601</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>351.6509108232256</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>93.4583209939527</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>203.7029035467948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>75.4571321610379</v>
+        <v>184.6448939492135</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>149.5860981314935</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386351</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695777</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576137</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>40.15381658332859</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417107</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>216.4795114578124</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>220.6346102953139</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569541</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>210.5950626772375</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2244,22 +2244,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>100.7197280522375</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>83.44729448253345</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2958,10 +2958,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>18.70843787977262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624841</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>55.52079624060465</v>
       </c>
       <c r="T46" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4357,25 +4357,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>3066.187443443257</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2735.124556099686</v>
       </c>
       <c r="W2" t="n">
-        <v>2325.505862906802</v>
+        <v>2382.355900829572</v>
       </c>
       <c r="X2" t="n">
-        <v>1952.040104645722</v>
+        <v>2008.890142568492</v>
       </c>
       <c r="Y2" t="n">
-        <v>1561.900772669911</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
         <v>618.1564155387305</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.6952191369613</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>510.7590362090544</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>360.6423967967187</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
-        <v>212.7293032143256</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
         <v>66.5121164321834</v>
@@ -4530,10 +4530,10 @@
         <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>900.4877982804915</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="Y4" t="n">
-        <v>679.6952191369613</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3120.91280869793</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>3120.91280869793</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2768.144153427816</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>2394.678395166736</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y5" t="n">
-        <v>2004.539063190924</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548192</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269123</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.126497185059</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943748</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943748</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="D8" t="n">
-        <v>1308.370295943748</v>
+        <v>1418.660964416653</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943748</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>480.6870701241381</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>311.7508871962312</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7508871962312</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8377936138381</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
         <v>176.6457242372933</v>
@@ -4971,43 +4971,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438286</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>480.6870701241381</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W10" t="n">
-        <v>480.6870701241381</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X10" t="n">
-        <v>480.6870701241381</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y10" t="n">
-        <v>480.6870701241381</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,37 +5105,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188007</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>301.5721730233229</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057737</v>
+        <v>134.3760737382028</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797182</v>
+        <v>134.3760737382028</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925705</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490404</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="14">
@@ -5260,40 +5260,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,13 +5351,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
@@ -5366,10 +5366,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832229</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C16" t="n">
-        <v>634.927936255316</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1978.396372297858</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134626</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,61 +5503,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1475.663568322143</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1186.246398285183</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>958.2568473871653</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>737.4642682436352</v>
       </c>
     </row>
     <row r="20">
@@ -5746,49 +5746,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852888</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>741.8431516380886</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C22" t="n">
-        <v>741.8431516380886</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="D22" t="n">
-        <v>591.7265122257528</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>548.795341502774</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>401.9053940048636</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,7 +6001,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6460,52 +6460,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E31" t="n">
-        <v>175.9033664000583</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7192,31 +7192,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>931.4710609784063</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>762.5348780504994</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>612.4182386381636</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T46" t="n">
-        <v>2395.078540748843</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>2106.003314093041</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1851.318825887154</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1561.901655850193</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1333.912104952176</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>1113.119525808646</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>41.11201973523693</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>57.22910392194222</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.925938869475857</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>41.54258064659055</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>45.7142345943317</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>82.07684380973539</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24846,10 +24846,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>125.5054897610399</v>
       </c>
       <c r="T46" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365052</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365053</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="J2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="K2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="M2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="N2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365055</v>
-      </c>
       <c r="P2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365059</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>7.723256517081232e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551161</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186747</v>
+        <v>14826.69604186724</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186732</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
@@ -26453,7 +26453,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186731</v>
       </c>
       <c r="O4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832389.9260083976</v>
+        <v>-832389.9260083975</v>
       </c>
       <c r="C6" t="n">
-        <v>496354.819719195</v>
+        <v>496354.8197191951</v>
       </c>
       <c r="D6" t="n">
-        <v>496354.819719195</v>
+        <v>496354.8197191949</v>
       </c>
       <c r="E6" t="n">
-        <v>244365.542809019</v>
+        <v>244678.1841379404</v>
       </c>
       <c r="F6" t="n">
-        <v>569778.0046163738</v>
+        <v>570090.6459452956</v>
       </c>
       <c r="G6" t="n">
-        <v>569778.0046163739</v>
+        <v>570090.6459452955</v>
       </c>
       <c r="H6" t="n">
-        <v>569778.004616374</v>
+        <v>570090.6459452952</v>
       </c>
       <c r="I6" t="n">
-        <v>569778.004616374</v>
+        <v>570090.6459452957</v>
       </c>
       <c r="J6" t="n">
-        <v>352246.8022190967</v>
+        <v>352559.4435480179</v>
       </c>
       <c r="K6" t="n">
-        <v>569778.0046163741</v>
+        <v>570090.6459452955</v>
       </c>
       <c r="L6" t="n">
-        <v>569778.0046163741</v>
+        <v>570090.6459452955</v>
       </c>
       <c r="M6" t="n">
-        <v>484722.9766808625</v>
+        <v>485035.6180097834</v>
       </c>
       <c r="N6" t="n">
-        <v>569778.004616374</v>
+        <v>570090.6459452957</v>
       </c>
       <c r="O6" t="n">
-        <v>569778.0046163741</v>
+        <v>570090.6459452956</v>
       </c>
       <c r="P6" t="n">
-        <v>569778.0046163741</v>
+        <v>570090.6459452958</v>
       </c>
     </row>
   </sheetData>
@@ -26709,13 +26709,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26792,31 +26792,31 @@
         <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>9.65407064635154e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973548</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14.70460777061612</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>198.0889477142681</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>205.5144399267207</v>
+        <v>206.1804730353311</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>3.032130797457341</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>157.5368509649493</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>14.88174980530002</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>306.4732379112239</v>
+        <v>197.2854761230483</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28067,10 +28067,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>102.5515451923345</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282313</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>2.359001882723533e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>467.1465236515247</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990649</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>446.0127311990647</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,19 +33502,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>328.5921438716505</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770466</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,22 +35725,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8786972770464</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,16 +36205,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>199.0097390795102</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
